--- a/inputs/EPA_OPP_MCs.xlsx
+++ b/inputs/EPA_OPP_MCs.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Silent Spring)\1. Central_Files\Articles_Abstracts\SSI-Articles\Updated breast cancer list 2021\Code for updated MC list 2021\1 - build MC list\1.1 MCList_refs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (Silent Spring)\1. Central_Files\Articles_Abstracts\SSI-Articles\Updated breast cancer list 2021\code for github\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A84FED-74D6-4916-B17F-96610663361F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C468D0F-89BC-4F88-9987-A44CB44E7006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8532" windowHeight="3300" xr2:uid="{7AD0EFF0-33AA-4BA7-B1CF-EECAC485063F}"/>
+    <workbookView xWindow="-18540" yWindow="1140" windowWidth="17970" windowHeight="11865" xr2:uid="{7AD0EFF0-33AA-4BA7-B1CF-EECAC485063F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>CASRN</t>
   </si>
@@ -126,15 +136,6 @@
     <t>DTXSID5021207</t>
   </si>
   <si>
-    <t>95-06-7</t>
-  </si>
-  <si>
-    <t>Sulfallate</t>
-  </si>
-  <si>
-    <t>DTXSID7021289</t>
-  </si>
-  <si>
     <t>62-73-7</t>
   </si>
   <si>
@@ -240,16 +241,22 @@
     <t>Terbuthylazine</t>
   </si>
   <si>
-    <t>inadequate evidence</t>
-  </si>
-  <si>
     <t>68359-37-5</t>
   </si>
   <si>
     <t>DTXSID5035957</t>
   </si>
   <si>
-    <t>cyfluthrin</t>
+    <t>Malathion</t>
+  </si>
+  <si>
+    <t>121-75-5</t>
+  </si>
+  <si>
+    <t>DTXSID4020791</t>
+  </si>
+  <si>
+    <t>Cyfluthrin</t>
   </si>
 </sst>
 </file>
@@ -604,7 +611,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -625,46 +632,46 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -672,111 +679,111 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -784,41 +791,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -826,13 +833,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -840,83 +847,83 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
         <v>66</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -924,20 +931,24 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D22" xr:uid="{A8594BE5-E841-42ED-9FF7-672A148EC193}"/>
+  <autoFilter ref="A1:D1" xr:uid="{F89896AF-3F44-4AC5-979D-D3AF96C2FDD5}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D23">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>